--- a/public/data/lime/lime_table_zimbabwe.xlsx
+++ b/public/data/lime/lime_table_zimbabwe.xlsx
@@ -1633,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.4</v>
+        <v>0.66</v>
       </c>
       <c r="K5" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.32</v>
+        <v>0.3</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1727,16 +1727,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.7</v>
+        <v>0.92</v>
       </c>
       <c r="K7" t="n">
-        <v>0.38</v>
+        <v>0.1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1756,16 +1756,16 @@
         <v>94</v>
       </c>
       <c r="D8" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="E8" t="n">
-        <v>1.66</v>
+        <v>0.92</v>
       </c>
       <c r="F8" t="n">
-        <v>0.57</v>
+        <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.44</v>
+        <v>0.98</v>
       </c>
       <c r="K8" t="n">
-        <v>0.32</v>
+        <v>0.06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1803,16 +1803,16 @@
         <v>95</v>
       </c>
       <c r="D9" t="n">
-        <v>2.19</v>
+        <v>1.79</v>
       </c>
       <c r="E9" t="n">
-        <v>1.1</v>
+        <v>0.47</v>
       </c>
       <c r="F9" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.27</v>
+        <v>0.81</v>
       </c>
       <c r="K9" t="n">
-        <v>0.34</v>
+        <v>0.09</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>96</v>
       </c>
       <c r="D10" t="n">
-        <v>1.79</v>
+        <v>1.38</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="F10" t="n">
-        <v>0.41</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1868,16 +1868,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.87</v>
+        <v>0.48</v>
       </c>
       <c r="K10" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1915,16 +1915,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.44</v>
+        <v>0.76</v>
       </c>
       <c r="K11" t="n">
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1944,13 +1944,13 @@
         <v>98</v>
       </c>
       <c r="D12" t="n">
-        <v>2.53</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1.24</v>
+        <v>0.31</v>
       </c>
       <c r="F12" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1962,16 +1962,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.54</v>
+        <v>0.9</v>
       </c>
       <c r="K12" t="n">
-        <v>0.36</v>
+        <v>0.05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1991,13 +1991,13 @@
         <v>99</v>
       </c>
       <c r="D13" t="n">
-        <v>3.6</v>
+        <v>3.09</v>
       </c>
       <c r="E13" t="n">
-        <v>2.54</v>
+        <v>1.44</v>
       </c>
       <c r="F13" t="n">
-        <v>1.3</v>
+        <v>0.02</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2009,16 +2009,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.63</v>
+        <v>1.1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.59</v>
+        <v>0.15</v>
       </c>
       <c r="L13" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2038,16 +2038,16 @@
         <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>2.81</v>
+        <v>2.44</v>
       </c>
       <c r="E14" t="n">
-        <v>1.93</v>
+        <v>1.17</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="K14" t="n">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="L14" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2085,13 +2085,13 @@
         <v>101</v>
       </c>
       <c r="D15" t="n">
-        <v>2.66</v>
+        <v>2.31</v>
       </c>
       <c r="E15" t="n">
-        <v>1.69</v>
+        <v>0.99</v>
       </c>
       <c r="F15" t="n">
-        <v>0.72</v>
+        <v>0.14</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.44</v>
+        <v>0.12</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07</v>
+        <v>0.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2197,16 +2197,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.01</v>
+        <v>0.45</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2291,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.93</v>
+        <v>0.33</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.02</v>
+        <v>0.25</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2385,16 +2385,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.51</v>
+        <v>0.46</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.93</v>
+        <v>0.46</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06</v>
+        <v>0.17</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2620,16 +2620,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="K26" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2667,16 +2667,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.96</v>
+        <v>1.18</v>
       </c>
       <c r="K27" t="n">
-        <v>0.48</v>
+        <v>0.04</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2714,16 +2714,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.92</v>
+        <v>0.44</v>
       </c>
       <c r="K28" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.16</v>
+        <v>0.55</v>
       </c>
       <c r="K29" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2808,16 +2808,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.77</v>
+        <v>0.35</v>
       </c>
       <c r="K30" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2855,16 +2855,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.81</v>
+        <v>0.38</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2902,16 +2902,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.02</v>
+        <v>0.32</v>
       </c>
       <c r="K32" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>121</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.69</v>
+        <v>0.33</v>
       </c>
       <c r="K33" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M33" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2996,16 +2996,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.09</v>
+        <v>0.5</v>
       </c>
       <c r="K34" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.7</v>
+        <v>1.86</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9</v>
+        <v>0.14</v>
       </c>
       <c r="L36" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3137,16 +3137,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.85</v>
+        <v>0.31</v>
       </c>
       <c r="K37" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3184,16 +3184,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>4.39</v>
+        <v>3.49</v>
       </c>
       <c r="K38" t="n">
-        <v>2.61</v>
+        <v>0.95</v>
       </c>
       <c r="L38" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3278,16 +3278,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.93</v>
+        <v>0.22</v>
       </c>
       <c r="K40" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.02</v>
+        <v>0.34</v>
       </c>
       <c r="K41" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.81</v>
+        <v>0.19</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3419,16 +3419,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.1</v>
+        <v>0.27</v>
       </c>
       <c r="K43" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.91</v>
+        <v>0.06</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.23</v>
+        <v>0.69</v>
       </c>
       <c r="K46" t="n">
-        <v>0.47</v>
+        <v>0.11</v>
       </c>
       <c r="L46" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="M46" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -3607,16 +3607,16 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>3.89</v>
+        <v>2.81</v>
       </c>
       <c r="K47" t="n">
-        <v>1.93</v>
+        <v>0.41</v>
       </c>
       <c r="L47" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3701,16 +3701,16 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.05</v>
+        <v>0.48</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.57</v>
+        <v>0.56</v>
       </c>
       <c r="K50" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3795,16 +3795,16 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1.24</v>
+        <v>0.62</v>
       </c>
       <c r="K51" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="L51" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3842,16 +3842,16 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.31</v>
+        <v>0.69</v>
       </c>
       <c r="K52" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3936,16 +3936,16 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>0.65</v>
+        <v>0.15</v>
       </c>
       <c r="L54" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3983,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.44</v>
+        <v>0.78</v>
       </c>
       <c r="K55" t="n">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="L55" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.54</v>
+        <v>0.91</v>
       </c>
       <c r="K56" t="n">
-        <v>0.62</v>
+        <v>0.17</v>
       </c>
       <c r="L56" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="M56" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -4124,10 +4124,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.81</v>
+        <v>0.25</v>
       </c>
       <c r="K58" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -4171,16 +4171,16 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.3</v>
+        <v>0.58</v>
       </c>
       <c r="K59" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="L59" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -4218,16 +4218,16 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.18</v>
+        <v>0.46</v>
       </c>
       <c r="K60" t="n">
-        <v>0.42</v>
+        <v>0.01</v>
       </c>
       <c r="L60" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -4265,16 +4265,16 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.08</v>
+        <v>0.39</v>
       </c>
       <c r="K61" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -4312,16 +4312,16 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.47</v>
+        <v>0.75</v>
       </c>
       <c r="K62" t="n">
-        <v>0.46</v>
+        <v>0.02</v>
       </c>
       <c r="L62" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -4406,16 +4406,16 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.99</v>
+        <v>0.44</v>
       </c>
       <c r="K64" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="L64" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -4453,16 +4453,16 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
       <c r="K65" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -4500,16 +4500,16 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.21</v>
+        <v>0.52</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -4547,16 +4547,16 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.79</v>
+        <v>0.26</v>
       </c>
       <c r="K67" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4735,16 +4735,16 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.39</v>
+        <v>0.6</v>
       </c>
       <c r="K71" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4782,13 +4782,13 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.15</v>
+        <v>0.71</v>
       </c>
       <c r="K72" t="n">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="L72" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -4876,16 +4876,16 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.24</v>
+        <v>0.41</v>
       </c>
       <c r="K74" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0.95</v>
+        <v>0.24</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4970,16 +4970,16 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.32</v>
+        <v>0.77</v>
       </c>
       <c r="K76" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0.84</v>
+        <v>0.09</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -5064,16 +5064,16 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.39</v>
+        <v>0.73</v>
       </c>
       <c r="K78" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -5111,16 +5111,16 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>3.05</v>
+        <v>2.16</v>
       </c>
       <c r="K79" t="n">
-        <v>1.32</v>
+        <v>0.35</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0.99</v>
+        <v>0.33</v>
       </c>
       <c r="K80" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -5205,16 +5205,16 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1.17</v>
+        <v>0.42</v>
       </c>
       <c r="K81" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -5299,16 +5299,16 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1.18</v>
+        <v>0.31</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.42</v>
+        <v>0.1</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -5393,16 +5393,16 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.07</v>
+        <v>0.28</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -5487,16 +5487,16 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.24</v>
+        <v>0.69</v>
       </c>
       <c r="K87" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.04</v>
+        <v>0.19</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -5543,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
@@ -5581,16 +5581,16 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.21</v>
+        <v>0.53</v>
       </c>
       <c r="K89" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -5628,16 +5628,16 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.27</v>
+        <v>0.61</v>
       </c>
       <c r="K90" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -5675,16 +5675,16 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.86</v>
+        <v>1.17</v>
       </c>
       <c r="K91" t="n">
-        <v>0.72</v>
+        <v>0.16</v>
       </c>
       <c r="L91" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
